--- a/felpy/data/FASTXPD_SA1_Options.xlsx
+++ b/felpy/data/FASTXPD_SA1_Options.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="20">
   <si>
     <t xml:space="preserve">Pulse Name</t>
   </si>
@@ -34,16 +34,97 @@
     <t xml:space="preserve">Runs</t>
   </si>
   <si>
-    <t xml:space="preserve">XFEL_S1_0.496keV_12.0GeV_0020pC_SASE_U_BLI_2014-05-01_FAST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XFEL_S1_0.496keV_12.0GeV_0100pC_SASE_T_BLI_2014-03-23_FAST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XFEL_S1_0.496keV_12.0GeV_0100pC_SASE_U_BLI_2014-05-01_FAST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XFEL_S1_0.496keV_12.0GeV_0250pC_SASE_U_BLI_2014-09-04_FAST</t>
+    <t xml:space="preserve">XFEL_S1_04.96keV_12.0GeV_0020pC_SASE_U_BLI_2014-05-01_FAST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XFEL_S1_04.96keV_12.0GeV_0100pC_SASE_T_BLI_2014-03-23_FAST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XFEL_S1_04.96keV_12.0GeV_0100pC_SASE_U_BLI_2014-05-01_FAST</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">XFEL_S1_0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">4.9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">6keV_12.0GeV_0100pC_SASE_U_BLI_2014-05-01_FAST</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">XFEL_S1_0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">4.9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">6keV_12.0GeV_0250pC_SASE_U_BLI_2014-09-04_FAST</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">XFEL_S1_0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">4.96</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">keV_12.0GeV_0250pC_SASE_U_BLI_2014-09-04_FAST</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">XFEL_S1_08.43keV_17.5GeV_0100pC_SASE_U_BLI_2016-02-22_FAST</t>
@@ -83,11 +164,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -103,6 +185,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -171,19 +258,19 @@
   </sheetPr>
   <dimension ref="A1:D83"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="400" zoomScaleNormal="400" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="73.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="27.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="27.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="28.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="21.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="21.55"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -326,9 +413,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>7</v>
@@ -340,9 +427,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>75</v>
@@ -354,9 +441,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>75</v>
@@ -368,9 +455,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>75</v>
@@ -384,7 +471,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>33</v>
@@ -398,7 +485,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>33</v>
@@ -412,7 +499,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>33</v>
@@ -426,7 +513,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>33</v>
@@ -440,7 +527,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>33</v>
@@ -454,7 +541,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>33</v>
@@ -468,7 +555,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>33</v>
@@ -482,7 +569,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>33</v>
@@ -496,7 +583,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>75</v>
@@ -510,7 +597,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>75</v>
@@ -524,7 +611,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>75</v>
@@ -538,7 +625,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>75</v>
@@ -552,7 +639,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>75</v>
@@ -566,7 +653,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>75</v>
@@ -580,7 +667,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>75</v>
@@ -594,7 +681,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>120</v>
@@ -608,7 +695,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>120</v>
@@ -622,7 +709,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>120</v>
@@ -636,7 +723,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>120</v>
@@ -650,7 +737,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>120</v>
@@ -664,7 +751,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>120</v>
@@ -678,7 +765,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>120</v>
@@ -692,7 +779,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>33</v>
@@ -706,7 +793,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>33</v>
@@ -720,7 +807,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>33</v>
@@ -734,7 +821,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>33</v>
@@ -748,7 +835,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>33</v>
@@ -762,7 +849,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>33</v>
@@ -776,7 +863,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>33</v>
@@ -790,7 +877,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>33</v>
@@ -804,7 +891,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>75</v>
@@ -818,7 +905,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>75</v>
@@ -832,7 +919,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>75</v>
@@ -846,7 +933,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>75</v>
@@ -860,7 +947,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>75</v>
@@ -874,7 +961,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>75</v>
@@ -888,7 +975,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>75</v>
@@ -902,7 +989,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>120</v>
@@ -916,7 +1003,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>120</v>
@@ -930,7 +1017,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>120</v>
@@ -944,7 +1031,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>120</v>
@@ -958,7 +1045,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>120</v>
@@ -972,7 +1059,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>120</v>
@@ -986,7 +1073,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>120</v>
@@ -1000,7 +1087,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>33</v>
@@ -1014,7 +1101,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>33</v>
@@ -1028,7 +1115,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>33</v>
@@ -1042,7 +1129,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>33</v>
@@ -1056,7 +1143,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>33</v>
@@ -1070,7 +1157,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>33</v>
@@ -1084,7 +1171,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>33</v>
@@ -1098,7 +1185,7 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>75</v>
@@ -1112,7 +1199,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>75</v>
@@ -1126,7 +1213,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>75</v>
@@ -1140,7 +1227,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>75</v>
@@ -1154,7 +1241,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B70" s="0" t="n">
         <v>75</v>
@@ -1168,7 +1255,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>75</v>
@@ -1182,7 +1269,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B72" s="0" t="n">
         <v>120</v>
@@ -1196,7 +1283,7 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B73" s="0" t="n">
         <v>120</v>
@@ -1210,7 +1297,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>120</v>
@@ -1224,7 +1311,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>120</v>
@@ -1238,7 +1325,7 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B76" s="0" t="n">
         <v>120</v>
@@ -1252,7 +1339,7 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B77" s="0" t="n">
         <v>120</v>
@@ -1266,7 +1353,7 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B78" s="0" t="n">
         <v>120</v>
@@ -1280,7 +1367,7 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B79" s="0" t="n">
         <v>120</v>
@@ -1294,7 +1381,7 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B80" s="0" t="n">
         <v>120</v>
@@ -1308,7 +1395,7 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B81" s="0" t="n">
         <v>120</v>
@@ -1322,7 +1409,7 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>120</v>
@@ -1336,7 +1423,7 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>120</v>

--- a/felpy/data/FASTXPD_SA1_Options.xlsx
+++ b/felpy/data/FASTXPD_SA1_Options.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="18">
   <si>
     <t xml:space="preserve">Pulse Name</t>
   </si>
@@ -37,94 +37,13 @@
     <t xml:space="preserve">XFEL_S1_04.96keV_12.0GeV_0020pC_SASE_U_BLI_2014-05-01_FAST</t>
   </si>
   <si>
-    <t xml:space="preserve">XFEL_S1_04.96keV_12.0GeV_0100pC_SASE_T_BLI_2014-03-23_FAST</t>
+    <t xml:space="preserve">XFEL_S1_04.96keV_12.0GeV_0100pC_SASE_T_BLI_2015-03-23_FAST</t>
   </si>
   <si>
     <t xml:space="preserve">XFEL_S1_04.96keV_12.0GeV_0100pC_SASE_U_BLI_2014-05-01_FAST</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">XFEL_S1_0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">4.9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">6keV_12.0GeV_0100pC_SASE_U_BLI_2014-05-01_FAST</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">XFEL_S1_0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">4.9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">6keV_12.0GeV_0250pC_SASE_U_BLI_2014-09-04_FAST</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">XFEL_S1_0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">4.96</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">keV_12.0GeV_0250pC_SASE_U_BLI_2014-09-04_FAST</t>
-    </r>
+    <t xml:space="preserve">XFEL_S1_04.96keV_12.0GeV_0250pC_SASE_U_BLI_2014-09-04_FAST</t>
   </si>
   <si>
     <t xml:space="preserve">XFEL_S1_08.43keV_17.5GeV_0100pC_SASE_U_BLI_2016-02-22_FAST</t>
@@ -164,7 +83,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -185,11 +104,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -258,11 +172,11 @@
   </sheetPr>
   <dimension ref="A1:D83"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="400" zoomScaleNormal="400" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="400" zoomScaleNormal="400" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="73.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.69"/>
@@ -270,7 +184,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="27.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="28.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="21.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="21.56"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -415,7 +329,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>7</v>
@@ -429,7 +343,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>75</v>
@@ -443,7 +357,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>75</v>
@@ -457,7 +371,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>75</v>
@@ -471,7 +385,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>33</v>
@@ -485,7 +399,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>33</v>
@@ -499,7 +413,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>33</v>
@@ -513,7 +427,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>33</v>
@@ -527,7 +441,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>33</v>
@@ -541,7 +455,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>33</v>
@@ -555,7 +469,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>33</v>
@@ -569,7 +483,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>33</v>
@@ -583,7 +497,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>75</v>
@@ -597,7 +511,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>75</v>
@@ -611,7 +525,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>75</v>
@@ -625,7 +539,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>75</v>
@@ -639,7 +553,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>75</v>
@@ -653,7 +567,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>75</v>
@@ -667,7 +581,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>75</v>
@@ -681,7 +595,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>120</v>
@@ -695,7 +609,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>120</v>
@@ -709,7 +623,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>120</v>
@@ -723,7 +637,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>120</v>
@@ -737,7 +651,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>120</v>
@@ -751,7 +665,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>120</v>
@@ -765,7 +679,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>120</v>
@@ -779,7 +693,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>33</v>
@@ -793,7 +707,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>33</v>
@@ -807,7 +721,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>33</v>
@@ -821,7 +735,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>33</v>
@@ -835,7 +749,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>33</v>
@@ -849,7 +763,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>33</v>
@@ -863,7 +777,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>33</v>
@@ -877,7 +791,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>33</v>
@@ -891,7 +805,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>75</v>
@@ -905,7 +819,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>75</v>
@@ -919,7 +833,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>75</v>
@@ -933,7 +847,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>75</v>
@@ -947,7 +861,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>75</v>
@@ -961,7 +875,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>75</v>
@@ -975,7 +889,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>75</v>
@@ -989,7 +903,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>120</v>
@@ -1003,7 +917,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>120</v>
@@ -1017,7 +931,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>120</v>
@@ -1031,7 +945,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>120</v>
@@ -1045,7 +959,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>120</v>
@@ -1059,7 +973,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>120</v>
@@ -1073,7 +987,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>120</v>
@@ -1087,7 +1001,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>33</v>
@@ -1101,7 +1015,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>33</v>
@@ -1115,7 +1029,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>33</v>
@@ -1129,7 +1043,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>33</v>
@@ -1143,7 +1057,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>33</v>
@@ -1157,7 +1071,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>33</v>
@@ -1171,7 +1085,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>33</v>
@@ -1185,7 +1099,7 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>75</v>
@@ -1199,7 +1113,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>75</v>
@@ -1213,7 +1127,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>75</v>
@@ -1227,7 +1141,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>75</v>
@@ -1241,7 +1155,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B70" s="0" t="n">
         <v>75</v>
@@ -1255,7 +1169,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>75</v>
@@ -1269,7 +1183,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B72" s="0" t="n">
         <v>120</v>
@@ -1283,7 +1197,7 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B73" s="0" t="n">
         <v>120</v>
@@ -1297,7 +1211,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>120</v>
@@ -1311,7 +1225,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>120</v>
@@ -1325,7 +1239,7 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B76" s="0" t="n">
         <v>120</v>
@@ -1339,7 +1253,7 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B77" s="0" t="n">
         <v>120</v>
@@ -1353,7 +1267,7 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B78" s="0" t="n">
         <v>120</v>
@@ -1367,7 +1281,7 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B79" s="0" t="n">
         <v>120</v>
@@ -1381,7 +1295,7 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B80" s="0" t="n">
         <v>120</v>
@@ -1395,7 +1309,7 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B81" s="0" t="n">
         <v>120</v>
@@ -1409,7 +1323,7 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>120</v>
@@ -1423,7 +1337,7 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>120</v>
